--- a/biology/Zoologie/Blepharipodidae/Blepharipodidae.xlsx
+++ b/biology/Zoologie/Blepharipodidae/Blepharipodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blepharipodidae sont une famille de crustacés décapodes du groupe des Anomura. Ces espèces sont souvent appelées « crabes-taupes », car elles vivent enterrées dans le sable.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (15 février 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (15 février 2016) :
 genre Blepharipoda Randall, 1840 -- 4 espèces
 genre Lophomastix Benedict, 1904 -- 2 espèces actuelles, 4 fossiles</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Christopher B. Boyko, « A Worldwide Revision of the Recent and Fossil Sand Crabs of the Albuneidae Stimpson and Blepharipodidae, New Family (Crustacea: Decapoda: Anomura: Hippoidea) », Bulletin of the American Museum of Natural History, New York, Musée américain d'histoire naturelle, vol. 272,‎ octobre 2002, p. 1-396 (ISSN 0003-0090 et 1937-3546, OCLC 1287364, DOI 10.1206/0003-0090(2002)272&lt;0001:AWROTR&gt;2.0.CO;2)</t>
         </is>
